--- a/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50194\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\BK_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47BCDE-2BBC-46C9-88F1-A1F797293630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D25A5-B872-4D27-A59A-B4121AC397F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="252" windowWidth="13764" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
     <sheet name="Bー画面項目定義 " sheetId="11" r:id="rId2"/>
     <sheet name="Cー活性不活性確認" sheetId="10" r:id="rId3"/>
     <sheet name="D-表示非表示" sheetId="7" r:id="rId4"/>
-    <sheet name="Eーエラーメッセージ確認クライアント" sheetId="8" r:id="rId5"/>
+    <sheet name="Eーエラーメッセージ確認クライアント " sheetId="12" r:id="rId5"/>
     <sheet name="Eーエラーメッセージ確認サーバ" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bー画面項目定義 '!$C$6:$AA$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Eーエラーメッセージ確認クライアント!$C$5:$Z$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Eーエラーメッセージ確認クライアント '!$C$5:$Z$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Ａ-画面レイアウト'!$A$1:$U$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Bー画面項目定義 '!$A$1:$AI$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Eーエラーメッセージ確認クライアント '!$A$1:$AH$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Eーエラーメッセージ確認サーバ!$A$1:$AO$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="316">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1830,9 +1831,6 @@
     <t>UT-USER02-E-011</t>
   </si>
   <si>
-    <t>UT-USER02-E-012</t>
-  </si>
-  <si>
     <t>UT-USER02-E-013</t>
   </si>
   <si>
@@ -2213,19 +2211,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ショット-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UT-USER02-B-023</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>EB文</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ショット-3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2239,6 +2229,14 @@
     <rPh sb="5" eb="7">
       <t>マチガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EB李</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-012</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2426,7 +2424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2481,6 +2479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -3159,7 +3163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3426,6 +3430,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3480,6 +3493,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3489,10 +3556,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3504,81 +3592,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3588,15 +3601,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3684,6 +3697,138 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3692,138 +3837,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4314,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F9333B-AB08-4AA6-B1AB-3242D8418782}">
   <dimension ref="B1:AB57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="P7" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:T14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -4344,26 +4357,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4376,37 +4389,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="105"/>
+      <c r="I3" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="108"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="111">
         <v>45069</v>
       </c>
-      <c r="M3" s="109"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4479,67 +4492,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="115" t="s">
+      <c r="R7" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="111">
+      <c r="S7" s="114">
         <v>45069</v>
       </c>
-      <c r="T7" s="110" t="s">
-        <v>305</v>
-      </c>
-      <c r="U7" s="110"/>
+      <c r="T7" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" s="113"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
     </row>
     <row r="10" spans="2:28" ht="32.4">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4547,42 +4560,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="99"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="102"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4596,18 +4609,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4622,18 +4635,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4646,12 +4659,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="112"/>
+      <c r="G25" s="115"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="102"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4843,8 +4856,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Q18" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="T25" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -4867,59 +4880,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4929,10 +4942,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4947,57 +4960,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="137" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="133"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="125"/>
+      <c r="D6" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="134"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5022,32 +5035,32 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124" t="s">
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="119" t="s">
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="136"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5061,39 +5074,39 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="3:28" ht="36">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116">
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="137">
         <v>8</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116" t="s">
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="118"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="139"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5107,42 +5120,42 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="36">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="143"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="117" t="s">
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="125">
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="142">
         <v>5</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="148"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="142" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="145"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>107</v>
@@ -5157,43 +5170,43 @@
         <v>161</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="36">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="145" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="121" t="s">
+      <c r="E10" s="143"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="125">
+      <c r="K10" s="150"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="142">
         <v>50</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="148"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="145"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>107</v>
@@ -5213,33 +5226,33 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117" t="s">
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116">
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="137">
         <v>50</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="118"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="139"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>107</v>
@@ -5250,42 +5263,42 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="36">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="125" t="s">
+      <c r="E12" s="143"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="117" t="s">
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="125">
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="142">
         <v>10</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="125" t="s">
+      <c r="N12" s="143"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="148"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="145"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>107</v>
@@ -5301,40 +5314,40 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="36">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="149" t="s">
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="121" t="s">
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="125">
+      <c r="K13" s="150"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="142">
         <v>50</v>
       </c>
-      <c r="N13" s="126"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="148"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="145"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>107</v>
@@ -5354,30 +5367,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="154" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="117" t="s">
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116">
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="137">
         <v>50</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="118"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="139"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>139</v>
@@ -5396,35 +5409,35 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="149" t="s">
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="121" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="125">
+      <c r="K15" s="150"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="142">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="125" t="s">
+      <c r="N15" s="143"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="145"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>107</v>
@@ -5440,40 +5453,40 @@
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="3:28" ht="36">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="149" t="s">
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="121" t="s">
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="125">
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="142">
         <v>50</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="148"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="145"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5485,7 +5498,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5493,30 +5506,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="154" t="s">
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="117" t="s">
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116">
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="137">
         <v>50</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="118"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="139"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>140</v>
@@ -5535,35 +5548,35 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="125" t="s">
+      <c r="E18" s="143"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="117" t="s">
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="125">
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="142">
         <v>6</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="148"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="145"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>107</v>
@@ -5579,37 +5592,37 @@
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="36">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="125" t="s">
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="121" t="s">
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="125">
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="142">
         <v>50</v>
       </c>
-      <c r="N19" s="126"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="148"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="145"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>141</v>
@@ -5623,37 +5636,37 @@
       <c r="Y19" s="96"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="36">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="125" t="s">
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="121" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="125">
+      <c r="K20" s="150"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="142">
         <v>50</v>
       </c>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="148"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="145"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>142</v>
@@ -5667,37 +5680,37 @@
       <c r="Y20" s="96"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="36">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117" t="s">
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="116">
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="137">
         <v>50</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="118"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="139"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>143</v>
@@ -5716,35 +5729,35 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116" t="s">
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117" t="s">
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="116">
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="137">
         <v>8</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116" t="s">
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="118"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="139"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W22" s="21" t="s">
         <v>107</v>
@@ -5760,40 +5773,40 @@
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="3:28" ht="36">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116" t="s">
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117" t="s">
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="116">
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="137">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="118"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="139"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5805,41 +5818,38 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA23" s="19"/>
-      <c r="AB23" s="1" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="24" spans="3:28" ht="36">
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116" t="s">
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117" t="s">
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="116">
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="137">
         <v>2</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="118"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="139"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>144</v>
@@ -5854,41 +5864,38 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA24" s="19"/>
-      <c r="AB24" s="1" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="25" spans="3:28" ht="36">
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117" t="s">
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116">
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="137">
         <v>2</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="118"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="139"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>145</v>
@@ -5903,41 +5910,38 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA25" s="19"/>
-      <c r="AB25" s="1" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="26" spans="3:28" ht="36">
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116" t="s">
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117" t="s">
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="116">
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="137">
         <v>50</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="118"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="139"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>146</v>
@@ -5956,35 +5960,35 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116" t="s">
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117" t="s">
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="119">
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="135">
         <v>10</v>
       </c>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="116" t="s">
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="118"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="139"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>107</v>
@@ -6000,42 +6004,42 @@
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="3:28" ht="36">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116" t="s">
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117" t="s">
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="124">
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="141">
         <v>4</v>
       </c>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="119" t="s">
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="120"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="136"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W28" s="21" t="s">
         <v>107</v>
@@ -6051,42 +6055,42 @@
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="36">
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117" t="s">
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="124" t="s">
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="119" t="s">
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="120"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="136"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6098,46 +6102,43 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="1" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="30" spans="3:28" ht="36">
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117" t="s">
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="124">
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="141">
         <v>6</v>
       </c>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="119" t="s">
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="120"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="136"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W30" s="21" t="s">
         <v>107</v>
@@ -6153,39 +6154,39 @@
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="3:28" ht="36">
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117" t="s">
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="124" t="s">
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="119" t="s">
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="136"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>147</v>
@@ -6200,41 +6201,38 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA31" s="19"/>
-      <c r="AB31" s="1" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="32" spans="3:28" ht="36">
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117" t="s">
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="116">
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="137">
         <v>50</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="118"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="139"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>148</v>
@@ -6253,35 +6251,35 @@
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="125" t="s">
+      <c r="E33" s="143"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="117" t="s">
+      <c r="H33" s="143"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="125">
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="142">
         <v>4</v>
       </c>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="119" t="s">
+      <c r="N33" s="143"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="120"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="136"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W33" s="21" t="s">
         <v>107</v>
@@ -6297,37 +6295,37 @@
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="3:28" ht="36">
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116" t="s">
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="121" t="s">
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="116">
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="137">
         <v>80</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="120"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="136"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>149</v>
@@ -6342,7 +6340,7 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA34" s="19"/>
     </row>
@@ -6350,30 +6348,30 @@
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116" t="s">
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117" t="s">
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="116">
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="137">
         <v>50</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="118"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="137"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="139"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>150</v>
@@ -6392,35 +6390,35 @@
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116" t="s">
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117" t="s">
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="116">
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="137">
         <v>4</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="119" t="s">
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="120"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="136"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>107</v>
@@ -6436,37 +6434,37 @@
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="3:28" ht="36">
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116" t="s">
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="121" t="s">
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="116">
+      <c r="K37" s="150"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="137">
         <v>100</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="120"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="136"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>151</v>
@@ -6481,7 +6479,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6489,30 +6487,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117" t="s">
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="116">
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="137">
         <v>50</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="118"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="139"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>152</v>
@@ -6531,35 +6529,35 @@
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="125" t="s">
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="121" t="s">
+      <c r="H39" s="143"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="125" t="s">
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="148"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="142" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="145"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W39" s="21" t="s">
         <v>107</v>
@@ -6570,45 +6568,45 @@
       <c r="Y39" s="96"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="3:28" ht="36">
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="125" t="s">
+      <c r="E40" s="143"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="121" t="s">
+      <c r="H40" s="143"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="125" t="s">
+      <c r="K40" s="150"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="126"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="125" t="s">
+      <c r="N40" s="143"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="148"/>
+      <c r="Q40" s="143"/>
+      <c r="R40" s="143"/>
+      <c r="S40" s="145"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>107</v>
@@ -6624,27 +6622,27 @@
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="148"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="142"/>
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="145"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6655,22 +6653,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="148"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="143"/>
+      <c r="R42" s="143"/>
+      <c r="S42" s="145"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6681,22 +6679,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="148"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="143"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="142"/>
+      <c r="Q43" s="143"/>
+      <c r="R43" s="143"/>
+      <c r="S43" s="145"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6707,22 +6705,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="148"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="143"/>
+      <c r="R44" s="143"/>
+      <c r="S44" s="145"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6733,22 +6731,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="148"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="145"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6759,22 +6757,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="148"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="142"/>
+      <c r="Q46" s="143"/>
+      <c r="R46" s="143"/>
+      <c r="S46" s="145"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6785,22 +6783,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="148"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="143"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="143"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="143"/>
+      <c r="R47" s="143"/>
+      <c r="S47" s="145"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6811,22 +6809,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="148"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="143"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="143"/>
+      <c r="R48" s="143"/>
+      <c r="S48" s="145"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6837,22 +6835,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="148"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="143"/>
+      <c r="O49" s="144"/>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="143"/>
+      <c r="R49" s="143"/>
+      <c r="S49" s="145"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6863,22 +6861,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="148"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="142"/>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="143"/>
+      <c r="S50" s="145"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6889,22 +6887,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="120"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="136"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6915,22 +6913,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="120"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="135"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="136"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6941,22 +6939,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="120"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="136"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6966,22 +6964,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="120"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="135"/>
+      <c r="O54" s="135"/>
+      <c r="P54" s="135"/>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="136"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6991,155 +6989,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="120"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="136"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="120"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="136"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="119"/>
-      <c r="S57" s="120"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="136"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="120"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="135"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="136"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="120"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="136"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="120"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="135"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
+      <c r="N60" s="135"/>
+      <c r="O60" s="135"/>
+      <c r="P60" s="135"/>
+      <c r="Q60" s="135"/>
+      <c r="R60" s="135"/>
+      <c r="S60" s="136"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="119"/>
-      <c r="S61" s="120"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
+      <c r="O61" s="135"/>
+      <c r="P61" s="135"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="136"/>
     </row>
     <row r="62" spans="3:27" ht="18.600000000000001" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="153"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
+      <c r="P62" s="156"/>
+      <c r="Q62" s="156"/>
+      <c r="R62" s="156"/>
+      <c r="S62" s="157"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7459,7 +7457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F816C2-B171-4337-B415-DBF1378AB17F}">
   <dimension ref="C1:AA52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="V8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -7482,71 +7480,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="178"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="179">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="180"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7563,53 +7561,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="133"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="134"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7634,28 +7632,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="162"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="163"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7670,24 +7668,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="175"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="162"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="169"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="172"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7746,24 +7744,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165" t="s">
+      <c r="H10" s="162"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="167"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="170"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7822,24 +7820,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="158" t="s">
+      <c r="E12" s="162"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165" t="s">
+      <c r="H12" s="162"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="172"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7868,10 +7866,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="160"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7894,10 +7892,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="160"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="163"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8480,22 +8478,22 @@
     </row>
     <row r="37" spans="3:27" ht="18.600000000000001" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="153"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="157"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8681,7 +8679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B4781-A492-4B58-8A10-539DD8C535C6}">
   <dimension ref="C1:AB52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C5" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -8704,71 +8702,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="178"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="179">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="180"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8786,53 +8784,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="133"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="134"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8857,28 +8855,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="162"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="163"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8893,24 +8891,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="175"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="178" t="s">
+      <c r="H8" s="162"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="164"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8969,24 +8967,24 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="178" t="s">
+      <c r="H10" s="162"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="180"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="183"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -9045,24 +9043,24 @@
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="158" t="s">
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="178" t="s">
+      <c r="H12" s="162"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="180"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="183"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -9121,24 +9119,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="162"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="158" t="s">
+      <c r="H14" s="162"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="164"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="167"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9167,10 +9165,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="157"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="160"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9193,10 +9191,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="160"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="163"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9779,22 +9777,22 @@
     </row>
     <row r="39" spans="3:27" ht="18.600000000000001" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="153"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="157"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9962,11 +9960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A46AA4-5DF5-46CC-88D3-22945FDEBCC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C215093-2425-423B-A26B-0CC0703F8E71}">
   <dimension ref="C1:AH63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AE20" sqref="M20:AE20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AE32" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -9994,89 +9992,90 @@
     <col min="32" max="32" width="15.09765625" style="1" customWidth="1"/>
     <col min="33" max="33" width="18" style="1" customWidth="1"/>
     <col min="34" max="34" width="32.296875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.69921875" style="1"/>
+    <col min="35" max="35" width="10.296875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:34" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="122"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="176">
+      <c r="R3" s="179">
         <v>45069</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10091,75 +10090,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221" t="s">
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="223" t="s">
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="221" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="221" t="s">
+      <c r="Q5" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221" t="s">
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="221"/>
-      <c r="V5" s="221"/>
-      <c r="W5" s="221" t="s">
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="229"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="197"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="220"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="230"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="190"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="198"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10184,43 +10183,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="215" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="199" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="215" t="s">
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="201"/>
       <c r="P7" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="215" t="s">
+      <c r="Q7" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="216" t="s">
+      <c r="R7" s="200"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="U7" s="216"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="210"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="204"/>
+      <c r="Z7" s="205"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10235,39 +10234,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="194" t="s">
+      <c r="D8" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="194" t="s">
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197" t="s">
+      <c r="H8" s="207"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="202" t="s">
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
       <c r="P8" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="202" t="s">
+      <c r="Q8" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202" t="s">
+      <c r="R8" s="210"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="210"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10286,39 +10285,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="194" t="s">
+      <c r="D9" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="194" t="s">
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="202" t="s">
+      <c r="H9" s="207"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="210" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="218" t="s">
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="N9" s="203"/>
-      <c r="O9" s="204"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="214"/>
       <c r="P9" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="202" t="s">
+      <c r="Q9" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202" t="s">
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210" t="s">
         <v>180</v>
       </c>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10337,52 +10336,52 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="190" t="s">
+      <c r="E10" s="220"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="219" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="201" t="s">
+      <c r="H10" s="220"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="214" t="s">
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="211" t="s">
         <v>182</v>
       </c>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
       <c r="P10" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="202" t="s">
+      <c r="Q10" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202" t="s">
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="U10" s="202"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="211"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="216"/>
+      <c r="Z10" s="217"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>248</v>
       </c>
       <c r="AD10" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
@@ -10415,13 +10414,13 @@
       <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD11" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE11" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
@@ -10431,52 +10430,52 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="194" t="s">
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="s">
+      <c r="H12" s="207"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="205" t="s">
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
       <c r="P12" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="202" t="s">
+      <c r="Q12" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202" t="s">
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="211"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="216"/>
+      <c r="Y12" s="216"/>
+      <c r="Z12" s="217"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>249</v>
       </c>
       <c r="AD12" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE12" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
@@ -10512,12 +10511,12 @@
         <v>250</v>
       </c>
       <c r="AD13" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE13" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="AE13" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF13" s="21"/>
+      <c r="AF13" s="98"/>
       <c r="AG13" s="21"/>
       <c r="AH13" s="21"/>
     </row>
@@ -10525,39 +10524,39 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="194" t="s">
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197" t="s">
+      <c r="H14" s="207"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="205" t="s">
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
       <c r="P14" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="202" t="s">
+      <c r="Q14" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202" t="s">
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10567,12 +10566,12 @@
         <v>251</v>
       </c>
       <c r="AD14" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE14" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AE14" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="98"/>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
     </row>
@@ -10606,12 +10605,12 @@
         <v>252</v>
       </c>
       <c r="AD15" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE15" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="AE15" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF15" s="21"/>
+      <c r="AF15" s="98"/>
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
     </row>
@@ -10619,39 +10618,39 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197" t="s">
+      <c r="H16" s="207"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="205" t="s">
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
       <c r="P16" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q16" s="202" t="s">
+      <c r="Q16" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="202"/>
-      <c r="S16" s="202"/>
-      <c r="T16" s="202" t="s">
+      <c r="R16" s="210"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="U16" s="202"/>
-      <c r="V16" s="202"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10661,12 +10660,12 @@
         <v>253</v>
       </c>
       <c r="AD16" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE16" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AE16" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF16" s="21"/>
+      <c r="AF16" s="98"/>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
     </row>
@@ -10700,12 +10699,12 @@
         <v>254</v>
       </c>
       <c r="AD17" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE17" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="AE17" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF17" s="21"/>
+      <c r="AF17" s="98"/>
       <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
     </row>
@@ -10713,39 +10712,39 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="194" t="s">
+      <c r="D18" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="194" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197" t="s">
+      <c r="H18" s="207"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="205" t="s">
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
       <c r="P18" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="202" t="s">
+      <c r="Q18" s="210" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="202"/>
-      <c r="S18" s="202"/>
-      <c r="T18" s="202" t="s">
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="U18" s="202"/>
-      <c r="V18" s="202"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
@@ -10755,12 +10754,12 @@
         <v>255</v>
       </c>
       <c r="AD18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE18" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AE18" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF18" s="21"/>
+      <c r="AF18" s="98"/>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
     </row>
@@ -10794,12 +10793,12 @@
         <v>256</v>
       </c>
       <c r="AD19" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="AE19" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF19" s="21"/>
+      <c r="AF19" s="98"/>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
     </row>
@@ -10807,39 +10806,39 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="194" t="s">
+      <c r="D20" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="194" t="s">
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197" t="s">
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="205" t="s">
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="218" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
       <c r="P20" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q20" s="202" t="s">
+      <c r="Q20" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="R20" s="202"/>
-      <c r="S20" s="202"/>
-      <c r="T20" s="202" t="s">
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="U20" s="202"/>
-      <c r="V20" s="202"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -10849,12 +10848,12 @@
         <v>257</v>
       </c>
       <c r="AD20" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE20" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AE20" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF20" s="21"/>
+      <c r="AF20" s="98"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
     </row>
@@ -10885,13 +10884,13 @@
       <c r="Z21" s="87"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="21" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="AD21" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE21" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
@@ -10901,54 +10900,54 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="194" t="s">
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197" t="s">
+      <c r="H22" s="207"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="205" t="s">
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
       <c r="P22" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="202" t="s">
+      <c r="Q22" s="210" t="s">
         <v>198</v>
       </c>
-      <c r="R22" s="202"/>
-      <c r="S22" s="202"/>
-      <c r="T22" s="202" t="s">
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="U22" s="202"/>
-      <c r="V22" s="202"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
       <c r="Z22" s="70"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD22" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE22" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AE22" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF22" s="21"/>
+      <c r="AF22" s="98"/>
       <c r="AG22" s="21"/>
       <c r="AH22" s="21"/>
     </row>
@@ -10979,13 +10978,13 @@
       <c r="Z23" s="87"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD23" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE23" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="AE23" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="AF23" s="21"/>
       <c r="AG23" s="21"/>
@@ -10995,56 +10994,56 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="194" t="s">
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="207" t="s">
+      <c r="H24" s="207"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="222" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="205" t="s">
+      <c r="K24" s="222"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
       <c r="P24" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q24" s="202" t="s">
+      <c r="Q24" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="R24" s="202"/>
-      <c r="S24" s="202"/>
-      <c r="T24" s="202" t="s">
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="202"/>
-      <c r="V24" s="202"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
       <c r="Z24" s="70"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD24" s="21" t="s">
+      <c r="AC24" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD24" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE24" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="AE24" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
     </row>
     <row r="25" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C25" s="88"/>
@@ -11072,73 +11071,73 @@
       <c r="Y25" s="86"/>
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
-      <c r="AC25" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD25" s="21" t="s">
+      <c r="AC25" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD25" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE25" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="AE25" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
     </row>
     <row r="26" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="194" t="s">
+      <c r="E26" s="207"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="202" t="s">
+      <c r="H26" s="207"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="206" t="s">
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="223" t="s">
         <v>182</v>
       </c>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
       <c r="P26" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q26" s="202" t="s">
+      <c r="Q26" s="210" t="s">
         <v>202</v>
       </c>
-      <c r="R26" s="202"/>
-      <c r="S26" s="202"/>
-      <c r="T26" s="202" t="s">
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210" t="s">
         <v>203</v>
       </c>
-      <c r="U26" s="202"/>
-      <c r="V26" s="202"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
       <c r="Z26" s="70"/>
       <c r="AB26" s="16"/>
-      <c r="AC26" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD26" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE26" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
+      <c r="AC26" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD26" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE26" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
     </row>
     <row r="27" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C27" s="88"/>
@@ -11153,8 +11152,7 @@
       <c r="L27" s="85"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="86"/>
+      <c r="O27" s="86"/>
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
       <c r="S27" s="86"/>
@@ -11166,73 +11164,73 @@
       <c r="Y27" s="86"/>
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
-      <c r="AC27" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD27" s="21" t="s">
+      <c r="AC27" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD27" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="AE27" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
+      <c r="AE27" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
     </row>
     <row r="28" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="194" t="s">
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205" t="s">
+      <c r="H28" s="213"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="218" t="s">
         <v>204</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202" t="s">
+      <c r="K28" s="210"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="210"/>
       <c r="P28" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q28" s="202" t="s">
+      <c r="Q28" s="210" t="s">
         <v>205</v>
       </c>
-      <c r="R28" s="202"/>
-      <c r="S28" s="202"/>
-      <c r="T28" s="205" t="s">
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="218" t="s">
         <v>206</v>
       </c>
-      <c r="U28" s="202"/>
-      <c r="V28" s="202"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70"/>
       <c r="AB28" s="16"/>
-      <c r="AC28" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD28" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE28" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
+      <c r="AC28" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD28" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE28" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
     </row>
     <row r="29" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C29" s="88"/>
@@ -11260,73 +11258,73 @@
       <c r="Y29" s="86"/>
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
-      <c r="AC29" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD29" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE29" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
+      <c r="AC29" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD29" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE29" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
     </row>
     <row r="30" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="187" t="s">
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="224" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="202" t="s">
+      <c r="H30" s="225"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202" t="s">
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
       <c r="P30" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="Q30" s="202" t="s">
+      <c r="Q30" s="210" t="s">
         <v>208</v>
       </c>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="202" t="s">
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
+      <c r="T30" s="210" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="202"/>
-      <c r="V30" s="202"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="70"/>
       <c r="AB30" s="16"/>
-      <c r="AC30" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD30" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE30" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
+      <c r="AC30" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD30" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE30" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
     </row>
     <row r="31" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C31" s="88"/>
@@ -11354,56 +11352,56 @@
       <c r="Y31" s="86"/>
       <c r="Z31" s="87"/>
       <c r="AB31" s="16"/>
-      <c r="AC31" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD31" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE31" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
+      <c r="AC31" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD31" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE31" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
     </row>
     <row r="32" spans="3:34" ht="34.950000000000003" customHeight="1">
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="190" t="s">
+      <c r="E32" s="227"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="219" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="201" t="s">
+      <c r="H32" s="227"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="198" t="s">
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="215" t="s">
         <v>212</v>
       </c>
-      <c r="N32" s="199"/>
-      <c r="O32" s="200"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="229"/>
       <c r="P32" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q32" s="190" t="s">
+      <c r="Q32" s="219" t="s">
         <v>213</v>
       </c>
-      <c r="R32" s="191"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="198" t="s">
+      <c r="R32" s="227"/>
+      <c r="S32" s="228"/>
+      <c r="T32" s="215" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
+      <c r="U32" s="216"/>
+      <c r="V32" s="229"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11422,39 +11420,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="194" t="s">
+      <c r="E33" s="207"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="206" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197" t="s">
+      <c r="H33" s="207"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198" t="s">
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="215" t="s">
         <v>215</v>
       </c>
-      <c r="N33" s="199"/>
-      <c r="O33" s="200"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="229"/>
       <c r="P33" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q33" s="190" t="s">
+      <c r="Q33" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="198" t="s">
+      <c r="R33" s="227"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="215" t="s">
         <v>217</v>
       </c>
-      <c r="U33" s="199"/>
-      <c r="V33" s="200"/>
+      <c r="U33" s="216"/>
+      <c r="V33" s="229"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11473,43 +11471,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="194" t="s">
+      <c r="E34" s="207"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="206" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197" t="s">
+      <c r="H34" s="207"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="190" t="s">
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="219" t="s">
         <v>218</v>
       </c>
-      <c r="N34" s="191"/>
-      <c r="O34" s="192"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="228"/>
       <c r="P34" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q34" s="190" t="s">
+      <c r="Q34" s="219" t="s">
         <v>219</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="198" t="s">
+      <c r="R34" s="227"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="215" t="s">
         <v>220</v>
       </c>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="185"/>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="186"/>
+      <c r="U34" s="216"/>
+      <c r="V34" s="229"/>
+      <c r="W34" s="231"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="233"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11524,43 +11522,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="187" t="s">
+      <c r="E35" s="225"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="224" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190" t="s">
+      <c r="H35" s="225"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="219" t="s">
         <v>222</v>
       </c>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="190" t="s">
+      <c r="K35" s="227"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="219" t="s">
         <v>218</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="192"/>
+      <c r="N35" s="227"/>
+      <c r="O35" s="228"/>
       <c r="P35" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="Q35" s="190" t="s">
+      <c r="Q35" s="219" t="s">
         <v>223</v>
       </c>
-      <c r="R35" s="191"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="193" t="s">
+      <c r="R35" s="227"/>
+      <c r="S35" s="228"/>
+      <c r="T35" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="185"/>
-      <c r="Y35" s="185"/>
-      <c r="Z35" s="186"/>
+      <c r="U35" s="227"/>
+      <c r="V35" s="228"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="232"/>
+      <c r="Y35" s="232"/>
+      <c r="Z35" s="233"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12365,29 +12363,29 @@
     </row>
     <row r="60" spans="3:34" ht="18.600000000000001" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="152"/>
-      <c r="Z60" s="153"/>
+      <c r="W60" s="156"/>
+      <c r="X60" s="156"/>
+      <c r="Y60" s="156"/>
+      <c r="Z60" s="157"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12441,36 +12439,91 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
     <mergeCell ref="W10:Z10"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -12485,95 +12538,40 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="C2:Z2"/>
     <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12611,64 +12609,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="257" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="256"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="259"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="178"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="174" t="s">
+      <c r="L3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="178"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12681,10 +12679,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="2:32" ht="33" thickBot="1">
       <c r="B4" s="2"/>
@@ -12720,71 +12718,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257" t="s">
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257" t="s">
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257" t="s">
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260" t="s">
         <v>226</v>
       </c>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257" t="s">
+      <c r="M5" s="260"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257" t="s">
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="260" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257" t="s">
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="259"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="262"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="134"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="260"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="263"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12809,40 +12807,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="C7" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="246" t="s">
+      <c r="D7" s="250"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="247"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="243" t="s">
+      <c r="G7" s="250"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="251" t="s">
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254" t="s">
         <v>228</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="243" t="s">
+      <c r="M7" s="255"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="246" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="231" t="s">
+      <c r="P7" s="252"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="234" t="s">
         <v>230</v>
       </c>
-      <c r="S7" s="185"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235"/>
+      <c r="S7" s="232"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="238"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12857,49 +12855,49 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="240" t="s">
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="243" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="231" t="s">
+      <c r="G8" s="244"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="234" t="s">
         <v>231</v>
       </c>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="231" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="243" t="s">
+      <c r="M8" s="241"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="246" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="231" t="s">
+      <c r="P8" s="247"/>
+      <c r="Q8" s="248"/>
+      <c r="R8" s="234" t="s">
         <v>233</v>
       </c>
-      <c r="S8" s="238"/>
-      <c r="T8" s="239"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="242"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
       <c r="X8" s="81"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
@@ -12931,13 +12929,13 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AB9" s="21" t="s">
-        <v>280</v>
-      </c>
       <c r="AC9" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
@@ -12947,34 +12945,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="231" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="184" t="s">
+      <c r="D10" s="239"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="231" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="231" t="s">
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="234" t="s">
         <v>234</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="231" t="s">
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="234" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="231" t="s">
+      <c r="M10" s="241"/>
+      <c r="N10" s="242"/>
+      <c r="O10" s="234" t="s">
         <v>235</v>
       </c>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="231"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="239"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="242"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="242"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
